--- a/WebContent/xlsx/test_listing.xlsx
+++ b/WebContent/xlsx/test_listing.xlsx
@@ -1,39 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dh499d\Desktop\Projects\db_structure\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="920" yWindow="220" windowWidth="26860" windowHeight="9400"/>
   </bookViews>
   <sheets>
     <sheet name="test_listing" sheetId="1" r:id="rId1"/>
-    <sheet name="test_type_definitions" sheetId="3" r:id="rId2"/>
-    <sheet name="resources" sheetId="2" r:id="rId3"/>
+    <sheet name="Help_requests_lists" sheetId="4" r:id="rId2"/>
+    <sheet name="test_type_definitions" sheetId="3" r:id="rId3"/>
+    <sheet name="resources" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="130407"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
+  <si>
+    <t>This test will display the name and image(optional) of an animal and you will identify that animal as a mammal, bird, fish, reptile or amphibian</t>
+  </si>
+  <si>
+    <t>*-tier multiple choice</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>*-tier is any number of response options that may be needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-tier is having 4 options to select from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-tier is having 2 options to select from </t>
+  </si>
+  <si>
+    <t>Fill-ins may have a required amount of letters, word length or search for particular words within the answer. This is mainly for spelling tests, but not exclusively.</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>sql_query</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill-in the blanks</t>
+  </si>
+  <si>
+    <t>essay with a certain amount of letters</t>
+  </si>
+  <si>
+    <t>essay with a certain amount of words</t>
+  </si>
+  <si>
+    <t>unlimited response essay</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>The Elements of the Periodic Table</t>
+  </si>
+  <si>
+    <t>The U.S. States and Capitals</t>
+  </si>
+  <si>
+    <t>Famous Companies That Changed Their Names</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>test_business_history</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>This is a list of questions that the user will be able to automaticall send or may possibly ask.</t>
+  </si>
+  <si>
+    <t>different test types</t>
+  </si>
+  <si>
+    <t>U.S. Space Exploration between 1940 - 1960</t>
+  </si>
+  <si>
+    <t>if you see errors or have suggestions please contact us at &lt;email&gt;&lt;/email&gt;</t>
+  </si>
+  <si>
+    <t>Suggestion list</t>
+  </si>
+  <si>
+    <t>Requested at</t>
+  </si>
+  <si>
+    <t>Olympic International Track History</t>
+  </si>
+  <si>
+    <t>Olympic International Soccer History</t>
+  </si>
+  <si>
+    <t>multiple definitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test will ask you questions pertaining to </t>
+  </si>
+  <si>
+    <t>The World Empires - ['x'] Version</t>
+  </si>
+  <si>
+    <t>Battles of World War II</t>
+  </si>
+  <si>
+    <t>ALL, navy, marines, sea, land airforce, air</t>
+  </si>
+  <si>
+    <t>test_constitutional_law_001</t>
+  </si>
+  <si>
+    <t>test_us_space_exploration_1940-1960</t>
+  </si>
+  <si>
+    <t>test_olympic_track_history</t>
+  </si>
+  <si>
+    <t>test_world_empires_*</t>
+  </si>
+  <si>
+    <t>test_battles_wwii_001</t>
+  </si>
+  <si>
+    <t>country, region, world, continental</t>
+  </si>
+  <si>
+    <t>test_olympic_*</t>
+  </si>
+  <si>
+    <t>soccer, football, futbol_history</t>
+  </si>
+  <si>
+    <t>alternates</t>
+  </si>
+  <si>
+    <t>sectional of the constitution</t>
+  </si>
+  <si>
+    <t>Constitutional Law</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>constitutional_law</t>
+  </si>
+  <si>
+    <t>governments</t>
+  </si>
+  <si>
+    <t>world_war</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>soccer, football, futbol, calcio</t>
+  </si>
+  <si>
+    <t>track, running</t>
+  </si>
+  <si>
+    <t>science, history</t>
+  </si>
+  <si>
+    <t>science_history</t>
+  </si>
+  <si>
+    <t>test_linear_equations</t>
+  </si>
+  <si>
+    <t>people, equations, process</t>
+  </si>
+  <si>
+    <t>test_ethical_hacking</t>
+  </si>
+  <si>
+    <t>test_java</t>
+  </si>
+  <si>
+    <t>test_web_development</t>
+  </si>
+  <si>
+    <t>php, javascript, html, css</t>
+  </si>
+  <si>
+    <t>test_sql</t>
+  </si>
+  <si>
+    <t>test_manned_missions_to_space</t>
+  </si>
+  <si>
+    <t>test_dotnet</t>
+  </si>
+  <si>
+    <t>test_actors_vaudeville</t>
+  </si>
+  <si>
+    <t>Famous Actors Who Started in Vaudeville</t>
+  </si>
+  <si>
+    <t>test_dog_breeds</t>
+  </si>
+  <si>
+    <t>test_art_001</t>
+  </si>
+  <si>
+    <t>The History of Renaissance Art - Level *</t>
+  </si>
+  <si>
+    <t>ALL, renissance, contemporary, dadaism, pointalism, chinese, italian, african, etc. *: 1, 2, 3…</t>
+  </si>
+  <si>
+    <t>African American Fine Artists</t>
+  </si>
+  <si>
+    <t>Animal Classifications - Vertebrates</t>
+  </si>
   <si>
     <t>table_name</t>
   </si>
   <si>
-    <t>sql</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -218,43 +425,13 @@
   </si>
   <si>
     <t>4-tier multiple choice</t>
-  </si>
-  <si>
-    <t>fill-in the blanks</t>
-  </si>
-  <si>
-    <t>essay with a certain amount of letters</t>
-  </si>
-  <si>
-    <t>essay with a certain amount of words</t>
-  </si>
-  <si>
-    <t>unlimited response essay</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>The Elements of the Periodic Table</t>
-  </si>
-  <si>
-    <t>The U.S. States and Capitals</t>
-  </si>
-  <si>
-    <t>Famous Companies That Changed Their Names</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>test_business_history</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +457,19 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -306,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -322,13 +510,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -383,7 +572,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +607,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,532 +784,782 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="38.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28">
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="56">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="56">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="28">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="42">
+      <c r="A7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="42">
+      <c r="A8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="56">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="4" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="4" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="4" t="s">
+    <row r="21" spans="1:3" ht="28">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>10</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28">
+      <c r="A23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="42">
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="K6" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="K5" r:id="rId5"/>
-    <hyperlink ref="K4" r:id="rId6"/>
+    <hyperlink ref="K4" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId2"/>
+    <hyperlink ref="L6" r:id="rId3"/>
+    <hyperlink ref="K6" r:id="rId4"/>
+    <hyperlink ref="L5" r:id="rId5"/>
+    <hyperlink ref="L4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1132,5 +1571,10 @@
     <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>